--- a/notes/loaderservice.xlsx
+++ b/notes/loaderservice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4836" windowWidth="23040" windowHeight="9600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="5208" windowWidth="23040" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoaderService" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="251">
   <si>
     <t>SE Access Kit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -890,6 +890,14 @@
   </si>
   <si>
     <t>SSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameworks/base/core/java/com/nxp/eseclient/LoaderService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appletLoadApplet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P42"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2298,6 +2306,16 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2311,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2609,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
